--- a/results/I3_N5_M2_T45_C200_DepLowerLeft_s4_res.xlsx
+++ b/results/I3_N5_M2_T45_C200_DepLowerLeft_s4_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>38.40927967474529</v>
+        <v>30.95601360621537</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3819999694824219</v>
+        <v>0.3989999294281006</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38.40927967474529</v>
+        <v>30.95601360621536</v>
       </c>
     </row>
     <row r="7">
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -852,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>40.33845519167733</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -860,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35.00980620717855</v>
+        <v>31.61595173195233</v>
       </c>
     </row>
     <row r="5">
@@ -868,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>36.07354493653835</v>
       </c>
     </row>
     <row r="6">
@@ -876,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>32.43528232449546</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -884,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>37.93612771406968</v>
+        <v>42.68109939842174</v>
       </c>
     </row>
     <row r="8">
@@ -1043,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>188.5050000000028</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>188.4799999999996</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>199.3</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1076,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>197.9799999999996</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -1087,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>181.875</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -1098,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>80.51000000000204</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13">
@@ -1109,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>82.96999999999935</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14">
@@ -1120,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>94.63500000000022</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15">
@@ -1131,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>93.47500000000036</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16">
@@ -1142,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>85.27000000000044</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17">
@@ -1153,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>55.9950000000008</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18">
@@ -1164,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>58.4</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19">
@@ -1175,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>57.00500000000102</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20">
@@ -1186,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>53.86000000000058</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21">
@@ -1197,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>55.98000000000138</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22">
@@ -1208,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>118.4699999999993</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23">
@@ -1219,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>128.7149999999983</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24">
@@ -1230,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>119.6650000000009</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25">
@@ -1241,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>127.0699999999997</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26">
@@ -1252,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>130.0450000000019</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27">
@@ -1263,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>180.9549999999999</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28">
@@ -1274,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>196.4799999999977</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29">
@@ -1285,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>190.1700000000019</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30">
@@ -1296,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>196.1299999999992</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31">
@@ -1307,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>196.4950000000026</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32">
@@ -1318,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>180.9549999999999</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33">
@@ -1329,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>196.4799999999977</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34">
@@ -1340,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>190.1700000000019</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35">
@@ -1351,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>196.1299999999992</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36">
@@ -1362,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>196.4950000000026</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37">
@@ -1373,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>188.5050000000029</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38">
@@ -1384,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>188.4799999999996</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39">
@@ -1395,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>199.3</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40">
@@ -1406,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>197.9799999999996</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41">
@@ -1417,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>181.875</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
